--- a/描述性统计表_最终版.xlsx
+++ b/描述性统计表_最终版.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,42 +508,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>475.5494</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>651.5974</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7477</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>158.9646</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>305.7403</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>585.1520</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>8908.4126</t>
-        </is>
+        <v>3672</v>
+      </c>
+      <c r="E2" t="n">
+        <v>531.2056686629497</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703.8093403490354</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.10532339385691</v>
+      </c>
+      <c r="H2" t="n">
+        <v>190.2414412658975</v>
+      </c>
+      <c r="I2" t="n">
+        <v>348.387090766188</v>
+      </c>
+      <c r="J2" t="n">
+        <v>650.3641449316179</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8908.412618928391</v>
       </c>
     </row>
     <row r="3">
@@ -563,42 +549,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1833.6281</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2722.2229</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>45.9475</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>496.6519</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>964.0943</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1914.4468</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>30720.1800</t>
-        </is>
+        <v>3672</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1973.781298199891</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2929.767270861176</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45.94745</v>
+      </c>
+      <c r="H3" t="n">
+        <v>521.42525</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1027.6535</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2046.68925</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30720.18</v>
       </c>
     </row>
     <row r="4">
@@ -618,42 +590,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.3856</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.3569</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4069</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.1755</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.3425</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.5358</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>4.9427</t>
-        </is>
+        <v>3672</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.440706983632897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3456756537510422</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8410479</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.217251</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.382516</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.56680875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.942711</v>
       </c>
     </row>
     <row r="5">
@@ -673,42 +631,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30186.5591</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>29681.2668</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1079.0880</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>11899.4680</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>21005.5471</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>37217.6721</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>297419.1386</t>
-        </is>
+        <v>3672</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31563.29288025063</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31935.8327481882</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1079.088024436227</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11772.78994692468</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20918.35107591749</v>
+      </c>
+      <c r="J5" t="n">
+        <v>39352.30904709368</v>
+      </c>
+      <c r="K5" t="n">
+        <v>297419.1386029039</v>
       </c>
     </row>
     <row r="6">
@@ -728,42 +672,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.4216</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.1039</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.3493</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4158</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.4860</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.8485</t>
-        </is>
+        <v>3672</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4242545501856828</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1041038966426266</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0857566073536873</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.350483192250607</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4174399971961975</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4870406612753868</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.848469060138435</v>
       </c>
     </row>
     <row r="7">
@@ -783,42 +713,69 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.0667</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.6203</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0943</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.6856</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.9132</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1.2575</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>6.3834</t>
-        </is>
+        <v>3672</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.055361512641634</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6172840789978624</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0942668145174874</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6873108148574832</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9136196374893191</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.228571504354475</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.38342696629213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>gdp_per_capita</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>人均实际GDP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>元/人（2000年基期）</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3672</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36270.67576332523</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24825.49501928357</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2946.058755288659</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18185.17967896767</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29853.12973101587</v>
+      </c>
+      <c r="J8" t="n">
+        <v>46683.70652778634</v>
+      </c>
+      <c r="K8" t="n">
+        <v>147487.1247498332</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +817,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总数据集_2007-2023_清洗版</t>
+          <t>总数据集_2007-2023_最终版</t>
         </is>
       </c>
     </row>
@@ -872,7 +829,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4,488</t>
+          <t>3,672</t>
         </is>
       </c>
     </row>
@@ -884,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -907,7 +864,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -954,7 +911,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>264个地级市</t>
+          <t>216个地级市</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>清理内容</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>剔除GDP平减指数&lt;0.8的城市（19个），剔除首尾人口缺失的城市（29个）</t>
         </is>
       </c>
     </row>
